--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_78.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_78.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Maaya Sato</t>
+          <t>Satomi Yamada</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Maaya Sato</t>
+          <t>Satomi Yamada</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Maaya Sato</t>
+          <t>Satomi Yamada</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Maaya Sato</t>
+          <t>Satomi Yamada</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Maaya Sato</t>
+          <t>Satomi Yamada</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Maaya Sato</t>
+          <t>Satomi Yamada</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Maaya Sato</t>
+          <t>Satomi Yamada</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Maaya Sato</t>
+          <t>Satomi Yamada</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Maaya Sato</t>
+          <t>Satomi Yamada</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Maaya Sato</t>
+          <t>Satomi Yamada</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Maaya Sato</t>
+          <t>Satomi Yamada</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Maaya Sato</t>
+          <t>Satomi Yamada</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Maaya Sato</t>
+          <t>Satomi Yamada</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Maaya Sato</t>
+          <t>Satomi Yamada</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Maaya Sato</t>
+          <t>Satomi Yamada</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
